--- a/ExsampleData/Test_Shortcut_data.xlsx
+++ b/ExsampleData/Test_Shortcut_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck\KGLoupedeck\ExsampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCE1AD-ED6B-427F-B751-BA484EB51DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041A7EC-110B-41D5-85FD-2243B4492BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27450" yWindow="6765" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23925" yWindow="4275" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Category</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TextColor(r,g,b)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -49,50 +45,64 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>68,13,43</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Go to File/Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl+. </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Run current line/selection (retain cursor position)</t>
-  </si>
-  <si>
-    <t>Alt+Enter</t>
-  </si>
-  <si>
-    <t>Option+Return</t>
-  </si>
-  <si>
-    <t>Transpose Letters</t>
-  </si>
-  <si>
     <t>No shortcut</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Ctrl+T</t>
-  </si>
-  <si>
     <t>Editing (Console and Source)</t>
   </si>
   <si>
-    <t>241,228,240</t>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Focus Next Pane</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>Delete to Line End</t>
+  </si>
+  <si>
+    <t>Ctrl+K</t>
+  </si>
+  <si>
+    <t>Git/SVN</t>
+  </si>
+  <si>
+    <t>Diff active source document</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+D</t>
+  </si>
+  <si>
+    <t>Ctrl+Option+D</t>
+  </si>
+  <si>
+    <t>Main Menu (Server)</t>
+  </si>
+  <si>
+    <t>Help Menu</t>
+  </si>
+  <si>
+    <t>Alt+Shift+H</t>
+  </si>
+  <si>
+    <t>Ctrl+Option+H</t>
+  </si>
+  <si>
+    <t>Check Spelling</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>Icon_Fill_Color</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Find usages for symbol at cursor (C++)</t>
-  </si>
-  <si>
-    <t>Ctrl+Alt+U</t>
-  </si>
-  <si>
-    <t>Cmd+Option+U</t>
+    <t>Icon_Text_Color</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -130,12 +140,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76B5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B3E1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF26572D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1E4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC3823"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF857C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDFC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF440D2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,6 +223,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,6 +261,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1EC031"/>
+      <color rgb="FF6B3E1D"/>
+      <color rgb="FFCB39A1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,98 +542,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExsampleData/Test_Shortcut_data.xlsx
+++ b/ExsampleData/Test_Shortcut_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck\KGLoupedeck\ExsampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041A7EC-110B-41D5-85FD-2243B4492BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1491D3EB-BCFD-41BA-B980-3E92A8CFC8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23925" yWindow="4275" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27360" yWindow="1950" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Main Menu (Server)</t>
   </si>
   <si>
-    <t>Help Menu</t>
-  </si>
-  <si>
     <t>Alt+Shift+H</t>
   </si>
   <si>
@@ -103,6 +100,10 @@
   <si>
     <t>Icon_Text_Color</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>help menu</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -214,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,9 +251,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +543,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -563,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -614,7 +612,7 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -633,13 +631,13 @@
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -649,13 +647,13 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ExsampleData/Test_Shortcut_data.xlsx
+++ b/ExsampleData/Test_Shortcut_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck\KGLoupedeck\ExsampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1491D3EB-BCFD-41BA-B980-3E92A8CFC8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E305139-A9F0-4379-B3D5-3E7E07F5CB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="1950" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-615" yWindow="1560" windowWidth="25425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,16 +73,10 @@
     <t>Diff active source document</t>
   </si>
   <si>
-    <t>Ctrl+Alt+D</t>
-  </si>
-  <si>
     <t>Ctrl+Option+D</t>
   </si>
   <si>
     <t>Main Menu (Server)</t>
-  </si>
-  <si>
-    <t>Alt+Shift+H</t>
   </si>
   <si>
     <t>Ctrl+Option+H</t>
@@ -103,6 +97,14 @@
   </si>
   <si>
     <t>help menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ctrl+Alt+D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Alt+Shift+H</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -261,6 +263,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CC00"/>
       <color rgb="FF1EC031"/>
       <color rgb="FF6B3E1D"/>
       <color rgb="FFCB39A1"/>
@@ -543,7 +546,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -551,8 +554,8 @@
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -618,26 +621,26 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -647,13 +650,13 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
